--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H2">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>11.497973</v>
+        <v>13.69681033333333</v>
       </c>
       <c r="N2">
-        <v>34.493919</v>
+        <v>41.090431</v>
       </c>
       <c r="O2">
-        <v>0.09461878261088343</v>
+        <v>0.1107101339353595</v>
       </c>
       <c r="P2">
-        <v>0.09461878261088341</v>
+        <v>0.1107101339353595</v>
       </c>
       <c r="Q2">
-        <v>1253.578671180434</v>
+        <v>2204.807833607415</v>
       </c>
       <c r="R2">
-        <v>11282.20804062391</v>
+        <v>19843.27050246674</v>
       </c>
       <c r="S2">
-        <v>0.0288572236775657</v>
+        <v>0.04352730171167271</v>
       </c>
       <c r="T2">
-        <v>0.02885722367756569</v>
+        <v>0.04352730171167271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H3">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>298.307327</v>
       </c>
       <c r="O3">
-        <v>0.8182739724253053</v>
+        <v>0.8037307792188669</v>
       </c>
       <c r="P3">
-        <v>0.8182739724253052</v>
+        <v>0.803730779218867</v>
       </c>
       <c r="Q3">
-        <v>10841.09064510899</v>
+        <v>16006.41111289606</v>
       </c>
       <c r="R3">
-        <v>97569.81580598089</v>
+        <v>144057.7000160646</v>
       </c>
       <c r="S3">
-        <v>0.2495605460166974</v>
+        <v>0.3159984626379706</v>
       </c>
       <c r="T3">
-        <v>0.2495605460166974</v>
+        <v>0.3159984626379707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H4">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>31.755537</v>
       </c>
       <c r="O4">
-        <v>0.0871072449638113</v>
+        <v>0.08555908684577355</v>
       </c>
       <c r="P4">
-        <v>0.0871072449638113</v>
+        <v>0.08555908684577354</v>
       </c>
       <c r="Q4">
-        <v>1154.060339594382</v>
+        <v>1703.921205840117</v>
       </c>
       <c r="R4">
-        <v>10386.54305634944</v>
+        <v>15335.29085256106</v>
       </c>
       <c r="S4">
-        <v>0.02656632417471072</v>
+        <v>0.03363880120934206</v>
       </c>
       <c r="T4">
-        <v>0.02656632417471072</v>
+        <v>0.03363880120934205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>269.931655</v>
       </c>
       <c r="I5">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J5">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>11.497973</v>
+        <v>13.69681033333333</v>
       </c>
       <c r="N5">
-        <v>34.493919</v>
+        <v>41.090431</v>
       </c>
       <c r="O5">
-        <v>0.09461878261088343</v>
+        <v>0.1107101339353595</v>
       </c>
       <c r="P5">
-        <v>0.09461878261088341</v>
+        <v>0.1107101339353595</v>
       </c>
       <c r="Q5">
-        <v>1034.555627011772</v>
+        <v>1232.400893832589</v>
       </c>
       <c r="R5">
-        <v>9311.000643105945</v>
+        <v>11091.6080444933</v>
       </c>
       <c r="S5">
-        <v>0.02381534068974744</v>
+        <v>0.02433005031908728</v>
       </c>
       <c r="T5">
-        <v>0.02381534068974744</v>
+        <v>0.02433005031908728</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>269.931655</v>
       </c>
       <c r="I6">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J6">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>298.307327</v>
       </c>
       <c r="O6">
-        <v>0.8182739724253053</v>
+        <v>0.8037307792188669</v>
       </c>
       <c r="P6">
-        <v>0.8182739724253052</v>
+        <v>0.803730779218867</v>
       </c>
       <c r="Q6">
         <v>8946.954497304019</v>
@@ -818,10 +818,10 @@
         <v>80522.59047573617</v>
       </c>
       <c r="S6">
-        <v>0.2059577696217381</v>
+        <v>0.1766307166858976</v>
       </c>
       <c r="T6">
-        <v>0.2059577696217381</v>
+        <v>0.1766307166858976</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>269.931655</v>
       </c>
       <c r="I7">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J7">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>31.755537</v>
       </c>
       <c r="O7">
-        <v>0.0871072449638113</v>
+        <v>0.08555908684577355</v>
       </c>
       <c r="P7">
-        <v>0.0871072449638113</v>
+        <v>0.08555908684577354</v>
       </c>
       <c r="Q7">
-        <v>952.4249619804148</v>
+        <v>952.4249619804151</v>
       </c>
       <c r="R7">
-        <v>8571.824657823734</v>
+        <v>8571.824657823736</v>
       </c>
       <c r="S7">
-        <v>0.02192470308870617</v>
+        <v>0.0188027673187375</v>
       </c>
       <c r="T7">
-        <v>0.02192470308870616</v>
+        <v>0.0188027673187375</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>475.433556</v>
       </c>
       <c r="I8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>11.497973</v>
+        <v>13.69681033333333</v>
       </c>
       <c r="N8">
-        <v>34.493919</v>
+        <v>41.090431</v>
       </c>
       <c r="O8">
-        <v>0.09461878261088343</v>
+        <v>0.1107101339353595</v>
       </c>
       <c r="P8">
-        <v>0.09461878261088341</v>
+        <v>0.1107101339353595</v>
       </c>
       <c r="Q8">
-        <v>1822.174063393996</v>
+        <v>2170.641080878071</v>
       </c>
       <c r="R8">
-        <v>16399.56657054596</v>
+        <v>19535.76972790263</v>
       </c>
       <c r="S8">
-        <v>0.04194621824357028</v>
+        <v>0.04285278190459953</v>
       </c>
       <c r="T8">
-        <v>0.04194621824357028</v>
+        <v>0.04285278190459953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>475.433556</v>
       </c>
       <c r="I9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>298.307327</v>
       </c>
       <c r="O9">
-        <v>0.8182739724253053</v>
+        <v>0.8037307792188669</v>
       </c>
       <c r="P9">
-        <v>0.8182739724253052</v>
+        <v>0.803730779218867</v>
       </c>
       <c r="Q9">
         <v>15758.3681396072</v>
@@ -1004,10 +1004,10 @@
         <v>141825.3132564648</v>
       </c>
       <c r="S9">
-        <v>0.3627556567868698</v>
+        <v>0.3111015998949987</v>
       </c>
       <c r="T9">
-        <v>0.3627556567868697</v>
+        <v>0.3111015998949988</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>475.433556</v>
       </c>
       <c r="I10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>31.755537</v>
       </c>
       <c r="O10">
-        <v>0.0871072449638113</v>
+        <v>0.08555908684577355</v>
       </c>
       <c r="P10">
-        <v>0.0871072449638113</v>
+        <v>0.08555908684577354</v>
       </c>
       <c r="Q10">
         <v>1677.516430955508</v>
       </c>
       <c r="R10">
-        <v>15097.64787859957</v>
+        <v>15097.64787859958</v>
       </c>
       <c r="S10">
-        <v>0.03861621770039441</v>
+        <v>0.03311751831769399</v>
       </c>
       <c r="T10">
-        <v>0.0386162177003944</v>
+        <v>0.03311751831769399</v>
       </c>
     </row>
   </sheetData>
